--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS004-001 - Kepesertaan - Transaksi - Penarikan Iuran 10%.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS004-001 - Kepesertaan - Transaksi - Penarikan Iuran 10%.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29119B15-94A5-4F2C-B994-1AEAE9CE9C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925F58A-FB68-4208-B990-DD87A2C07EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -574,7 +574,7 @@
     <col min="12" max="12" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
